--- a/data/trans_orig/PCS12_SP_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP_R2-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>643634</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>613557</v>
+        <v>614201</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>673117</v>
+        <v>674334</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6238438408921115</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.594691909001699</v>
+        <v>0.5953160612749078</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6524205409008789</v>
+        <v>0.6535995189669214</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>972</v>
@@ -765,19 +765,19 @@
         <v>996571</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>964894</v>
+        <v>964808</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1023960</v>
+        <v>1026046</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7577833208476935</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7336965446069195</v>
+        <v>0.7336316197085885</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7786100601406357</v>
+        <v>0.7801962445690799</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1633</v>
@@ -786,19 +786,19 @@
         <v>1640204</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1597381</v>
+        <v>1593612</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1684602</v>
+        <v>1680482</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6989004454637774</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6806533199609716</v>
+        <v>0.6790472883974156</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7178187257572453</v>
+        <v>0.7160630378920313</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>388089</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>358606</v>
+        <v>357389</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>418166</v>
+        <v>417522</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3761561591078885</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.347579459099121</v>
+        <v>0.3464004810330786</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4053080909983008</v>
+        <v>0.4046839387250921</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>319</v>
@@ -836,19 +836,19 @@
         <v>318542</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>291153</v>
+        <v>289067</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>350219</v>
+        <v>350305</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2422166791523065</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2213899398593643</v>
+        <v>0.2198037554309202</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2663034553930804</v>
+        <v>0.2663683802914116</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>696</v>
@@ -857,19 +857,19 @@
         <v>706631</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>662233</v>
+        <v>666353</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>749454</v>
+        <v>753223</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3010995545362226</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2821812742427549</v>
+        <v>0.2839369621079688</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3193466800390287</v>
+        <v>0.3209527116025846</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>571326</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>535124</v>
+        <v>533052</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>610076</v>
+        <v>615341</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.337381404884834</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3160032241221692</v>
+        <v>0.3147794241840935</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3602644130138173</v>
+        <v>0.363373250201255</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>698</v>
@@ -982,19 +982,19 @@
         <v>721393</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>683459</v>
+        <v>684172</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>762722</v>
+        <v>762947</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4543712993977896</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4304785755375174</v>
+        <v>0.4309272192085047</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4804024872143625</v>
+        <v>0.4805439708965175</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1257</v>
@@ -1003,19 +1003,19 @@
         <v>1292719</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1234710</v>
+        <v>1241649</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1351801</v>
+        <v>1360940</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3939912362081862</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3763112563918731</v>
+        <v>0.3784261248936783</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4119981617752867</v>
+        <v>0.4147833019602092</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1122087</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1083337</v>
+        <v>1078072</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1158289</v>
+        <v>1160361</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.662618595115166</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6397355869861826</v>
+        <v>0.636626749798745</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6839967758778307</v>
+        <v>0.6852205758159063</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>856</v>
@@ -1053,19 +1053,19 @@
         <v>866280</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>824951</v>
+        <v>824726</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>904214</v>
+        <v>903501</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5456287006022104</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5195975127856376</v>
+        <v>0.5194560291034825</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5695214244624826</v>
+        <v>0.5690727807914954</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1946</v>
@@ -1074,19 +1074,19 @@
         <v>1988367</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1929285</v>
+        <v>1920146</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2046376</v>
+        <v>2039437</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6060087637918138</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5880018382247133</v>
+        <v>0.5852166980397907</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6236887436081269</v>
+        <v>0.6215738751063217</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>179982</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>157557</v>
+        <v>156564</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>204417</v>
+        <v>204163</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3264049308133174</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2857351016691786</v>
+        <v>0.2839342907216425</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3707178807335232</v>
+        <v>0.3702578323651186</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>199</v>
@@ -1199,19 +1199,19 @@
         <v>209984</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>186689</v>
+        <v>188820</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>232836</v>
+        <v>232997</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4407603377220446</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3918636178024746</v>
+        <v>0.3963365757103515</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4887285830063887</v>
+        <v>0.4890657915676691</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>368</v>
@@ -1220,19 +1220,19 @@
         <v>389966</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>358281</v>
+        <v>357150</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>419159</v>
+        <v>420322</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3794105828103698</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3485831202211546</v>
+        <v>0.3474830093282709</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4078139806838617</v>
+        <v>0.4089449711502456</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>371426</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>346991</v>
+        <v>347245</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>393851</v>
+        <v>394844</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6735950691866827</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6292821192664767</v>
+        <v>0.629742167634881</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7142648983308213</v>
+        <v>0.7160657092783573</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>253</v>
@@ -1270,19 +1270,19 @@
         <v>266428</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>243576</v>
+        <v>243415</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>289723</v>
+        <v>287592</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5592396622779554</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5112714169936113</v>
+        <v>0.5109342084323308</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6081363821975254</v>
+        <v>0.6036634242896485</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>611</v>
@@ -1291,19 +1291,19 @@
         <v>637854</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>608661</v>
+        <v>607498</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>669539</v>
+        <v>670670</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6205894171896302</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5921860193161388</v>
+        <v>0.5910550288497546</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6514168797788453</v>
+        <v>0.6525169906717292</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>1394942</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1341965</v>
+        <v>1336796</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1458655</v>
+        <v>1449845</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4257358970184624</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4095674504047762</v>
+        <v>0.407989781229815</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4451812457700149</v>
+        <v>0.4424922896567671</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1869</v>
@@ -1416,19 +1416,19 @@
         <v>1927947</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1867012</v>
+        <v>1871572</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1984335</v>
+        <v>1987844</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5705339626011435</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5525015884179793</v>
+        <v>0.5538512447247268</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5872208854678156</v>
+        <v>0.5882591944745356</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3258</v>
@@ -1437,19 +1437,19 @@
         <v>3322889</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3239001</v>
+        <v>3243155</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3400042</v>
+        <v>3404198</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4992515672809898</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4866476978769131</v>
+        <v>0.4872718249871985</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5108434802487847</v>
+        <v>0.5114678552534737</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1881601</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1817888</v>
+        <v>1826698</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1934578</v>
+        <v>1939747</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5742641029815375</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5548187542299851</v>
+        <v>0.5575077103432329</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5904325495952237</v>
+        <v>0.592010218770185</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1428</v>
@@ -1487,19 +1487,19 @@
         <v>1451250</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1394862</v>
+        <v>1391353</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1512185</v>
+        <v>1507625</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4294660373988565</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4127791145321846</v>
+        <v>0.4117408055254648</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4474984115820209</v>
+        <v>0.4461487552752735</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3253</v>
@@ -1508,19 +1508,19 @@
         <v>3332852</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3255699</v>
+        <v>3251543</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3416740</v>
+        <v>3412586</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5007484327190102</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4891565197512151</v>
+        <v>0.4885321447465261</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5133523021230868</v>
+        <v>0.5127281750128015</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>630409</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>598643</v>
+        <v>599027</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>660019</v>
+        <v>661503</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6468106098087874</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6142178163558957</v>
+        <v>0.6146116941641776</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6771907913061703</v>
+        <v>0.6787131440606252</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>918</v>
@@ -1872,19 +1872,19 @@
         <v>986227</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>954336</v>
+        <v>952424</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1018602</v>
+        <v>1016547</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7372026020363724</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7133635792810086</v>
+        <v>0.7119347370672309</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7614025672061652</v>
+        <v>0.7598663609459649</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1498</v>
@@ -1893,19 +1893,19 @@
         <v>1616637</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1569107</v>
+        <v>1566169</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1658405</v>
+        <v>1658477</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6991043420546497</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6785502078609081</v>
+        <v>0.6772797090567609</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7171667907855287</v>
+        <v>0.7171978248697325</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>344234</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>314624</v>
+        <v>313140</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>376000</v>
+        <v>375616</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3531893901912127</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3228092086938297</v>
+        <v>0.3212868559393748</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3857821836441043</v>
+        <v>0.3853883058358225</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>329</v>
@@ -1943,19 +1943,19 @@
         <v>351570</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>319195</v>
+        <v>321250</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>383461</v>
+        <v>385373</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2627973979636276</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2385974327938348</v>
+        <v>0.240133639054035</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2866364207189914</v>
+        <v>0.2880652629327691</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>657</v>
@@ -1964,19 +1964,19 @@
         <v>695803</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>654035</v>
+        <v>653963</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>743333</v>
+        <v>746271</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3008956579453503</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2828332092144712</v>
+        <v>0.2828021751302676</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3214497921390916</v>
+        <v>0.322720290943239</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>729883</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>684593</v>
+        <v>687208</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>775746</v>
+        <v>777262</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3716387567558874</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.348578387810693</v>
+        <v>0.349909876661051</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3949915173643821</v>
+        <v>0.3957633679160237</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>705</v>
@@ -2089,19 +2089,19 @@
         <v>769921</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>727284</v>
+        <v>723900</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>812477</v>
+        <v>811598</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4380017563615995</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4137461972188015</v>
+        <v>0.4118211100570681</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.462211393958275</v>
+        <v>0.4617113636415569</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1379</v>
@@ -2110,19 +2110,19 @@
         <v>1499803</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1435821</v>
+        <v>1434603</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1561652</v>
+        <v>1559067</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4029822757181578</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.385790774352448</v>
+        <v>0.3854636442205738</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4196003693341592</v>
+        <v>0.4189059522086536</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1234074</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1188211</v>
+        <v>1186695</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1279364</v>
+        <v>1276749</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6283612432441127</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.605008482635618</v>
+        <v>0.6042366320839764</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6514216121893072</v>
+        <v>0.6500901233389491</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>930</v>
@@ -2160,19 +2160,19 @@
         <v>987882</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>945326</v>
+        <v>946205</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1030519</v>
+        <v>1033903</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5619982436384006</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5377886060417251</v>
+        <v>0.5382886363584433</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5862538027811985</v>
+        <v>0.588178889942932</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2112</v>
@@ -2181,19 +2181,19 @@
         <v>2221957</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2160108</v>
+        <v>2162693</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2285939</v>
+        <v>2287157</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5970177242818422</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5803996306658409</v>
+        <v>0.5810940477913464</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.614209225647552</v>
+        <v>0.6145363557794261</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>143018</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>122337</v>
+        <v>121202</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>165219</v>
+        <v>166245</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.297223186830687</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2542430979911081</v>
+        <v>0.2518852505563018</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3433605267958874</v>
+        <v>0.3454947163699835</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>154</v>
@@ -2306,19 +2306,19 @@
         <v>172496</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>149749</v>
+        <v>150860</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>194221</v>
+        <v>194001</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3761111773525545</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.326513716297686</v>
+        <v>0.3289359227999773</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4234808190377973</v>
+        <v>0.4230008768695007</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>283</v>
@@ -2327,19 +2327,19 @@
         <v>315515</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>283954</v>
+        <v>283887</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>344463</v>
+        <v>346675</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3357207423752289</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3021388439589232</v>
+        <v>0.3020673137109339</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3665230337406317</v>
+        <v>0.3688762300505253</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>338163</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>315962</v>
+        <v>314936</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>358844</v>
+        <v>359979</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.702776813169313</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6566394732041125</v>
+        <v>0.6545052836300164</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7457569020088919</v>
+        <v>0.7481147494436978</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>258</v>
@@ -2377,19 +2377,19 @@
         <v>286135</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>264410</v>
+        <v>264630</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>308882</v>
+        <v>307771</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6238888226474455</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5765191809622027</v>
+        <v>0.5769991231304993</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.673486283702314</v>
+        <v>0.6710640772000227</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>567</v>
@@ -2398,19 +2398,19 @@
         <v>624298</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>595350</v>
+        <v>593138</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>655859</v>
+        <v>655926</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6642792576247711</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6334769662593683</v>
+        <v>0.6311237699494747</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6978611560410767</v>
+        <v>0.6979326862890659</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>1503310</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1441943</v>
+        <v>1443923</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1561023</v>
+        <v>1560139</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4395924867069892</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4216476166780464</v>
+        <v>0.4222264811881958</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4564686674507482</v>
+        <v>0.4562099289583046</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1777</v>
@@ -2523,19 +2523,19 @@
         <v>1928644</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1864953</v>
+        <v>1863361</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1987707</v>
+        <v>1987685</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.54263338799691</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5247137713291776</v>
+        <v>0.5242657755560419</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5592512260472314</v>
+        <v>0.5592448870834623</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3160</v>
@@ -2544,19 +2544,19 @@
         <v>3431954</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3348835</v>
+        <v>3343587</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3513101</v>
+        <v>3513683</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4921061739615341</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.48018769517646</v>
+        <v>0.4794352827724089</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5037417961408081</v>
+        <v>0.5038251464040923</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>1916472</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1858759</v>
+        <v>1859643</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1977839</v>
+        <v>1975859</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5604075132930108</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5435313325492516</v>
+        <v>0.5437900710416954</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5783523833219534</v>
+        <v>0.5777735188118042</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1517</v>
@@ -2594,19 +2594,19 @@
         <v>1625586</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1566523</v>
+        <v>1566545</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1689277</v>
+        <v>1690869</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4573666120030901</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4407487739527686</v>
+        <v>0.4407551129165376</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4752862286708224</v>
+        <v>0.4757342244439581</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3336</v>
@@ -2615,19 +2615,19 @@
         <v>3542058</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3460911</v>
+        <v>3460329</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3625177</v>
+        <v>3630425</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5078938260384659</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4962582038591919</v>
+        <v>0.4961748535959076</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5198123048235399</v>
+        <v>0.520564717227591</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>461618</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>433592</v>
+        <v>436501</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>484815</v>
+        <v>487342</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6119444637068658</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5747909450674366</v>
+        <v>0.5786476538469867</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6426945236725741</v>
+        <v>0.646044335550729</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>630</v>
@@ -2979,19 +2979,19 @@
         <v>722129</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>694393</v>
+        <v>695566</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>749376</v>
+        <v>751800</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7260059965794969</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6981205600318867</v>
+        <v>0.6993003831222242</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7533996290546433</v>
+        <v>0.7558361608393844</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1103</v>
@@ -3000,19 +3000,19 @@
         <v>1183748</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1142029</v>
+        <v>1145374</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1221510</v>
+        <v>1222069</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6768112522327583</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.652958584168941</v>
+        <v>0.654871226754546</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6984018140574081</v>
+        <v>0.6987218623797091</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>292729</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>269532</v>
+        <v>267005</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>320755</v>
+        <v>317846</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3880555362931342</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3573054763274259</v>
+        <v>0.353955664449271</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4252090549325635</v>
+        <v>0.4213523461530133</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>262</v>
@@ -3050,19 +3050,19 @@
         <v>272531</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>245284</v>
+        <v>242860</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>300267</v>
+        <v>299094</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2739940034205031</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2466003709453566</v>
+        <v>0.2441638391606154</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3018794399681133</v>
+        <v>0.3006996168777757</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>551</v>
@@ -3071,19 +3071,19 @@
         <v>565259</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>527497</v>
+        <v>526938</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>606978</v>
+        <v>603633</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3231887477672417</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3015981859425919</v>
+        <v>0.3012781376202908</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.347041415831059</v>
+        <v>0.3451287732454539</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>718405</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>676248</v>
+        <v>675165</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>767224</v>
+        <v>760178</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3459883484237385</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3256852495469912</v>
+        <v>0.3251636878280573</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3694999976077369</v>
+        <v>0.3661065157307996</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>717</v>
@@ -3196,19 +3196,19 @@
         <v>783074</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>739224</v>
+        <v>742734</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>827640</v>
+        <v>831455</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3938410949139958</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3717868252349246</v>
+        <v>0.3735520420863017</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.416254971317976</v>
+        <v>0.4181739065810672</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1384</v>
@@ -3217,19 +3217,19 @@
         <v>1501479</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1438774</v>
+        <v>1443696</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1559954</v>
+        <v>1564681</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.369396218464942</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3539692743946264</v>
+        <v>0.3551801900558859</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3837822824375531</v>
+        <v>0.3849451488214879</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1357980</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1309161</v>
+        <v>1316207</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1400137</v>
+        <v>1401220</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6540116515762615</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6305000023922631</v>
+        <v>0.6338934842692006</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6743147504530087</v>
+        <v>0.6748363121719427</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1191</v>
@@ -3267,19 +3267,19 @@
         <v>1205226</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1160660</v>
+        <v>1156845</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1249076</v>
+        <v>1245566</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6061589050860042</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5837450286820239</v>
+        <v>0.5818260934189329</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6282131747650752</v>
+        <v>0.6264479579136983</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2476</v>
@@ -3288,19 +3288,19 @@
         <v>2563206</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2504731</v>
+        <v>2500004</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2625911</v>
+        <v>2620989</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.630603781535058</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6162177175624469</v>
+        <v>0.6150548511785121</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6460307256053734</v>
+        <v>0.644819809944114</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>140160</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>119279</v>
+        <v>120448</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>162462</v>
+        <v>162471</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2562879452271098</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2181063520468677</v>
+        <v>0.2202439926056781</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2970678787698711</v>
+        <v>0.2970838569498443</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>168</v>
@@ -3413,19 +3413,19 @@
         <v>183645</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>161304</v>
+        <v>162920</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>207854</v>
+        <v>210724</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3344221030663054</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2937398333490883</v>
+        <v>0.2966826430630257</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3785076690267543</v>
+        <v>0.3837338076819249</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>294</v>
@@ -3434,19 +3434,19 @@
         <v>323805</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>290507</v>
+        <v>291235</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>354353</v>
+        <v>356518</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2954353714603645</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2650542585102273</v>
+        <v>0.265718428173589</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3233070123409489</v>
+        <v>0.3252823495138933</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>406726</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>384424</v>
+        <v>384415</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>427607</v>
+        <v>426438</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7437120547728902</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7029321212301289</v>
+        <v>0.7029161430501558</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7818936479531323</v>
+        <v>0.779756007394322</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>358</v>
@@ -3484,19 +3484,19 @@
         <v>365495</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>341286</v>
+        <v>338416</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>387836</v>
+        <v>386220</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6655778969336945</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6214923309732456</v>
+        <v>0.616266192318075</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7062601666509117</v>
+        <v>0.7033173569369745</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>733</v>
@@ -3505,19 +3505,19 @@
         <v>772222</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>741674</v>
+        <v>739509</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>805520</v>
+        <v>804792</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7045646285396355</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6766929876590508</v>
+        <v>0.6747176504861068</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7349457414897727</v>
+        <v>0.7342815718264111</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>1320184</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1256233</v>
+        <v>1257969</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1374478</v>
+        <v>1378702</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3908623480587158</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3719288049102476</v>
+        <v>0.3724427626261028</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.406937070104989</v>
+        <v>0.408187771632158</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1515</v>
@@ -3630,19 +3630,19 @@
         <v>1688848</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1625631</v>
+        <v>1628800</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1749284</v>
+        <v>1749348</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4781427250206398</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4602447661089513</v>
+        <v>0.461141990717166</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4952533673050571</v>
+        <v>0.4952712898657868</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2781</v>
@@ -3651,19 +3651,19 @@
         <v>3009032</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2922190</v>
+        <v>2928919</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3097866</v>
+        <v>3102045</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4354782132939984</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4229102355074013</v>
+        <v>0.4238839529276703</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4483347186417083</v>
+        <v>0.4489393907864155</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>2057434</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2003140</v>
+        <v>1998916</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2121385</v>
+        <v>2119649</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6091376519412842</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.593062929895011</v>
+        <v>0.591812228367842</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6280711950897524</v>
+        <v>0.6275572373738975</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1811</v>
@@ -3701,19 +3701,19 @@
         <v>1843252</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1782816</v>
+        <v>1782752</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1906469</v>
+        <v>1903300</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5218572749793602</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5047466326949427</v>
+        <v>0.5047287101342133</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5397552338910487</v>
+        <v>0.5388580092828339</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3760</v>
@@ -3722,19 +3722,19 @@
         <v>3900686</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3811852</v>
+        <v>3807673</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3987528</v>
+        <v>3980799</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5645217867060015</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5516652813582921</v>
+        <v>0.5510606092135846</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5770897644925987</v>
+        <v>0.5761160470723297</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>376873</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>350162</v>
+        <v>352246</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>398350</v>
+        <v>399860</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6570442214633119</v>
+        <v>0.6570442214633118</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6104752983375117</v>
+        <v>0.6141083509047196</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.694487374503635</v>
+        <v>0.6971193583849435</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1153</v>
@@ -4086,19 +4086,19 @@
         <v>641750</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>621066</v>
+        <v>621411</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>661371</v>
+        <v>661101</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.7908468591980079</v>
+        <v>0.7908468591980077</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7653577967454022</v>
+        <v>0.7657819420664644</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8150260356901148</v>
+        <v>0.8146937195295197</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1636</v>
@@ -4107,19 +4107,19 @@
         <v>1018623</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>987385</v>
+        <v>989906</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1047095</v>
+        <v>1048443</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7354357497131152</v>
+        <v>0.7354357497131154</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7128822103391625</v>
+        <v>0.7147017651253794</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.755991668103545</v>
+        <v>0.7569654644157163</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>196716</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>175239</v>
+        <v>173729</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>223427</v>
+        <v>221343</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3429557785366882</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3055126254963651</v>
+        <v>0.3028806416150565</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3895247016624884</v>
+        <v>0.3858916490952805</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>254</v>
@@ -4157,19 +4157,19 @@
         <v>169722</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>150101</v>
+        <v>150371</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>190406</v>
+        <v>190061</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2091531408019923</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1849739643098852</v>
+        <v>0.1853062804704804</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2346422032545979</v>
+        <v>0.2342180579335355</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>456</v>
@@ -4178,19 +4178,19 @@
         <v>366438</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>337966</v>
+        <v>336618</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>397676</v>
+        <v>395155</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2645642502868847</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2440083318964549</v>
+        <v>0.2430345355842832</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2871177896608374</v>
+        <v>0.2852982348746204</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>921658</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>867104</v>
+        <v>866390</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>970771</v>
+        <v>969405</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4149807185166411</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3904174573023606</v>
+        <v>0.3900960537287044</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4370939374350991</v>
+        <v>0.4364788370999746</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1553</v>
@@ -4303,19 +4303,19 @@
         <v>1013901</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>971547</v>
+        <v>971206</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1058524</v>
+        <v>1061374</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.468223666576938</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4486643758415182</v>
+        <v>0.4485070669530124</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4888309325152945</v>
+        <v>0.4901469115893442</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2491</v>
@@ -4324,19 +4324,19 @@
         <v>1935560</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1870288</v>
+        <v>1868647</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2002073</v>
+        <v>2001333</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4412650740137789</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4263845080573724</v>
+        <v>0.4260103153945376</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4564285505645776</v>
+        <v>0.4562598103573603</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1299309</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1250196</v>
+        <v>1251562</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1353863</v>
+        <v>1354577</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5850192814833588</v>
+        <v>0.5850192814833589</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5629060625649009</v>
+        <v>0.5635211629000252</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.609582542697639</v>
+        <v>0.6099039462712956</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1358</v>
@@ -4374,19 +4374,19 @@
         <v>1151519</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1106896</v>
+        <v>1104046</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1193873</v>
+        <v>1194214</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5317763334230621</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5111690674847055</v>
+        <v>0.509853088410656</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5513356241584819</v>
+        <v>0.5514929330469877</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2403</v>
@@ -4395,19 +4395,19 @@
         <v>2450828</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2384315</v>
+        <v>2385055</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2516100</v>
+        <v>2517741</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5587349259862211</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5435714494354225</v>
+        <v>0.5437401896426397</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5736154919426275</v>
+        <v>0.5739896846054626</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>297637</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>272027</v>
+        <v>272317</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>326778</v>
+        <v>325524</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.419718717063678</v>
+        <v>0.4197187170636781</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3836042181913787</v>
+        <v>0.3840134643466951</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4608127795732722</v>
+        <v>0.4590438824560864</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>455</v>
@@ -4520,19 +4520,19 @@
         <v>305178</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>280576</v>
+        <v>281430</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>329242</v>
+        <v>327870</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4170290524377475</v>
+        <v>0.4170290524377476</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3834093951836696</v>
+        <v>0.3845774902499138</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4499124056491176</v>
+        <v>0.4480382254917609</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>767</v>
@@ -4541,19 +4541,19 @@
         <v>602815</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>568534</v>
+        <v>567200</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>642847</v>
+        <v>640332</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4183527388642577</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3945615220663025</v>
+        <v>0.3936358504294989</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4461347941591726</v>
+        <v>0.4443892547671039</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>411497</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>382356</v>
+        <v>383610</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>437107</v>
+        <v>436817</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.580281282936322</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5391872204267274</v>
+        <v>0.540956117543913</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6163957818086212</v>
+        <v>0.6159865356533047</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>546</v>
@@ -4591,19 +4591,19 @@
         <v>426613</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>402549</v>
+        <v>403921</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>451215</v>
+        <v>450361</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5829709475622524</v>
+        <v>0.5829709475622525</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5500875943508829</v>
+        <v>0.5519617745082391</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6165906048163305</v>
+        <v>0.6154225097500863</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>913</v>
@@ -4612,19 +4612,19 @@
         <v>838110</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>798078</v>
+        <v>800593</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>872391</v>
+        <v>873725</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5816472611357423</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5538652058408272</v>
+        <v>0.5556107452328961</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6054384779336974</v>
+        <v>0.6063641495705011</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>1596169</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1525762</v>
+        <v>1531444</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1655682</v>
+        <v>1667015</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4555679018113896</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4354727346060471</v>
+        <v>0.4370945453219031</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4725535792669218</v>
+        <v>0.4757882592031183</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3161</v>
@@ -4737,19 +4737,19 @@
         <v>1960829</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1906167</v>
+        <v>1903095</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2014991</v>
+        <v>2014772</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5287130170998031</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5139739803945834</v>
+        <v>0.5131458985099361</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5433172480673</v>
+        <v>0.5432581556679723</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4894</v>
@@ -4758,19 +4758,19 @@
         <v>3556998</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3465242</v>
+        <v>3466181</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3640815</v>
+        <v>3643176</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4931799372687882</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4804578871703305</v>
+        <v>0.4805880478261231</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5048012188010729</v>
+        <v>0.5051286002445615</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>1907522</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1848009</v>
+        <v>1836676</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1977929</v>
+        <v>1972247</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5444320981886105</v>
+        <v>0.5444320981886104</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5274464207330785</v>
+        <v>0.5242117407968818</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.564527265393953</v>
+        <v>0.5629054546780973</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2158</v>
@@ -4808,19 +4808,19 @@
         <v>1747854</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1693692</v>
+        <v>1693911</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1802516</v>
+        <v>1805588</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4712869829001969</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4566827519327</v>
+        <v>0.4567418443320275</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4860260196054166</v>
+        <v>0.4868541014900641</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3772</v>
@@ -4829,19 +4829,19 @@
         <v>3655376</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3571559</v>
+        <v>3569198</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3747132</v>
+        <v>3746193</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5068200627312117</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4951987811989267</v>
+        <v>0.4948713997554373</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.519542112829669</v>
+        <v>0.5194119521738765</v>
       </c>
     </row>
     <row r="15">
